--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H2">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N2">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q2">
-        <v>8.109191897555</v>
+        <v>2.387144921652334</v>
       </c>
       <c r="R2">
-        <v>72.98272707799501</v>
+        <v>21.484304294871</v>
       </c>
       <c r="S2">
-        <v>0.006243041362686147</v>
+        <v>0.001263795676386978</v>
       </c>
       <c r="T2">
-        <v>0.006243041362686148</v>
+        <v>0.001263795676386978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H3">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q3">
-        <v>47.10414153124167</v>
+        <v>20.458150913585</v>
       </c>
       <c r="R3">
-        <v>423.937273781175</v>
+        <v>184.123358222265</v>
       </c>
       <c r="S3">
-        <v>0.03626416881588781</v>
+        <v>0.01083089779633688</v>
       </c>
       <c r="T3">
-        <v>0.03626416881588781</v>
+        <v>0.01083089779633688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H4">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N4">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O4">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P4">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q4">
-        <v>109.3805162443856</v>
+        <v>102.978097430934</v>
       </c>
       <c r="R4">
-        <v>984.42464619947</v>
+        <v>926.802876878406</v>
       </c>
       <c r="S4">
-        <v>0.08420901808866481</v>
+        <v>0.05451838014329217</v>
       </c>
       <c r="T4">
-        <v>0.08420901808866481</v>
+        <v>0.05451838014329217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H5">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N5">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O5">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P5">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q5">
-        <v>3.196149327182777</v>
+        <v>1.771412664633334</v>
       </c>
       <c r="R5">
-        <v>28.765343944645</v>
+        <v>15.9427139817</v>
       </c>
       <c r="S5">
-        <v>0.002460626496820208</v>
+        <v>0.0009378164041717069</v>
       </c>
       <c r="T5">
-        <v>0.002460626496820209</v>
+        <v>0.0009378164041717069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J6">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N6">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q6">
-        <v>29.343338723184</v>
+        <v>19.88856503939733</v>
       </c>
       <c r="R6">
-        <v>264.090048508656</v>
+        <v>178.997085354576</v>
       </c>
       <c r="S6">
-        <v>0.02259062058000895</v>
+        <v>0.01052934921476554</v>
       </c>
       <c r="T6">
-        <v>0.02259062058000896</v>
+        <v>0.01052934921476554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J7">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q7">
         <v>170.44765960376</v>
@@ -883,10 +883,10 @@
         <v>1534.02893643384</v>
       </c>
       <c r="S7">
-        <v>0.1312229137653238</v>
+        <v>0.09023792954656815</v>
       </c>
       <c r="T7">
-        <v>0.1312229137653238</v>
+        <v>0.09023792954656815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J8">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N8">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O8">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P8">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q8">
-        <v>395.7964712665707</v>
+        <v>857.964914409504</v>
       </c>
       <c r="R8">
-        <v>3562.168241399136</v>
+        <v>7721.684229685535</v>
       </c>
       <c r="S8">
-        <v>0.3047126979529788</v>
+        <v>0.4542214171781113</v>
       </c>
       <c r="T8">
-        <v>0.3047126979529788</v>
+        <v>0.4542214171781113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J9">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N9">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O9">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P9">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q9">
-        <v>11.56535614179733</v>
+        <v>14.75857442613334</v>
       </c>
       <c r="R9">
-        <v>104.088205276176</v>
+        <v>132.8271698352</v>
       </c>
       <c r="S9">
-        <v>0.008903846114334391</v>
+        <v>0.007813443742021458</v>
       </c>
       <c r="T9">
-        <v>0.008903846114334393</v>
+        <v>0.007813443742021458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H10">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N10">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q10">
-        <v>11.070290931675</v>
+        <v>5.132656993370334</v>
       </c>
       <c r="R10">
-        <v>99.63261838507501</v>
+        <v>46.19391294033301</v>
       </c>
       <c r="S10">
-        <v>0.008522709174542339</v>
+        <v>0.002717317100341314</v>
       </c>
       <c r="T10">
-        <v>0.00852270917454234</v>
+        <v>0.002717317100341314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H11">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q11">
-        <v>64.304379206375</v>
+        <v>43.98755618295501</v>
       </c>
       <c r="R11">
-        <v>578.7394128573751</v>
+        <v>395.888005646595</v>
       </c>
       <c r="S11">
-        <v>0.04950615354266024</v>
+        <v>0.02328777059767643</v>
       </c>
       <c r="T11">
-        <v>0.04950615354266024</v>
+        <v>0.02328777059767643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H12">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N12">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O12">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P12">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q12">
-        <v>149.3211842042167</v>
+        <v>221.415653129682</v>
       </c>
       <c r="R12">
-        <v>1343.89065783795</v>
+        <v>1992.740878167138</v>
       </c>
       <c r="S12">
-        <v>0.1149582277850984</v>
+        <v>0.1172212640177716</v>
       </c>
       <c r="T12">
-        <v>0.1149582277850984</v>
+        <v>0.1172212640177716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H13">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N13">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O13">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P13">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q13">
-        <v>4.363234137258333</v>
+        <v>3.808756443233334</v>
       </c>
       <c r="R13">
-        <v>39.269107235325</v>
+        <v>34.2788079891</v>
       </c>
       <c r="S13">
-        <v>0.003359132640849337</v>
+        <v>0.002016421324783889</v>
       </c>
       <c r="T13">
-        <v>0.003359132640849338</v>
+        <v>0.002016421324783889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H14">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N14">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q14">
-        <v>14.253067459332</v>
+        <v>7.930100398696001</v>
       </c>
       <c r="R14">
-        <v>128.277607133988</v>
+        <v>71.37090358826401</v>
       </c>
       <c r="S14">
-        <v>0.01097304032484355</v>
+        <v>0.004198331867614309</v>
       </c>
       <c r="T14">
-        <v>0.01097304032484355</v>
+        <v>0.004198331867614309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H15">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.377195</v>
       </c>
       <c r="O15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q15">
-        <v>82.79228255298003</v>
+        <v>67.96201991964001</v>
       </c>
       <c r="R15">
-        <v>745.13054297682</v>
+        <v>611.6581792767601</v>
       </c>
       <c r="S15">
-        <v>0.06373947626585282</v>
+        <v>0.03598026502451108</v>
       </c>
       <c r="T15">
-        <v>0.06373947626585282</v>
+        <v>0.03598026502451108</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H16">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N16">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O16">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P16">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q16">
-        <v>192.2519403243921</v>
+        <v>342.093454019856</v>
       </c>
       <c r="R16">
-        <v>1730.267462919528</v>
+        <v>3078.841086178704</v>
       </c>
       <c r="S16">
-        <v>0.1480094232156143</v>
+        <v>0.1811101723188749</v>
       </c>
       <c r="T16">
-        <v>0.1480094232156143</v>
+        <v>0.1811101723188749</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H17">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N17">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O17">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P17">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q17">
-        <v>5.617690707772</v>
+        <v>5.884636559200001</v>
       </c>
       <c r="R17">
-        <v>50.559216369948</v>
+        <v>52.96172903280001</v>
       </c>
       <c r="S17">
-        <v>0.004324903873833915</v>
+        <v>0.003115428046772282</v>
       </c>
       <c r="T17">
-        <v>0.004324903873833915</v>
+        <v>0.003115428046772282</v>
       </c>
     </row>
   </sheetData>
